--- a/docs/StructureDefinition-VAServiceHistoryObservation.xlsx
+++ b/docs/StructureDefinition-VAServiceHistoryObservation.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$86</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AP$93</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3561" uniqueCount="522">
   <si>
     <t>Path</t>
   </si>
@@ -335,244 +335,241 @@
     <t>Observation.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Observation.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>Observation.identifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Business Identifier for observation</t>
+  </si>
+  <si>
+    <t>A unique identifier assigned to this observation.</t>
+  </si>
+  <si>
+    <t>Allows observations to be distinguished and referenced.</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Observation.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fulfills
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>Observation.status</t>
+  </si>
+  <si>
+    <t>registered | preliminary | final | amended +</t>
+  </si>
+  <si>
+    <t>The status of the result value.</t>
+  </si>
+  <si>
+    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
+  </si>
+  <si>
+    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Codes providing the status of an observation.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>&lt; 445584004 |Report by finality status|</t>
+  </si>
+  <si>
+    <t>OBX-11</t>
+  </si>
+  <si>
+    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>Observation.category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Classification of  type of observation</t>
+  </si>
+  <si>
+    <t>A code that classifies the general type of observation being made.</t>
+  </si>
+  <si>
+    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
+  </si>
+  <si>
+    <t>Used for filtering what observations are retrieved and displayed.</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>Codes for high level observation categories.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
+  </si>
+  <si>
+    <t>class</t>
+  </si>
+  <si>
+    <t>Observation.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name
+</t>
+  </si>
+  <si>
+    <t>Type of observation (code / type)</t>
+  </si>
+  <si>
+    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes identifying names of simple observations.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
+  </si>
+  <si>
+    <t>OBX-3</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>what</t>
+  </si>
+  <si>
+    <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>xml:id (or equivalent in JSON)</t>
+  </si>
+  <si>
+    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
     <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Observation.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>Observation.identifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business Identifier for observation</t>
-  </si>
-  <si>
-    <t>A unique identifier assigned to this observation.</t>
-  </si>
-  <si>
-    <t>Allows observations to be distinguished and referenced.</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBX.21  For OBX segments from systems without OBX-21 support a combination of ORC/OBR and OBX must be negotiated between trading partners to uniquely identify the OBX segment. Depending on how V2 has been implemented each of these may be an option: 1) OBR-3 + OBX-3 + OBX-4 or 2) OBR-3 + OBR-4 + OBX-3 + OBX-4 or 2) some other way to uniquely ID the OBR/ORC + OBX-3 + OBX-4.</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>Observation.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fulfills
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ProcedureRequest|ReferralRequest)
-</t>
-  </si>
-  <si>
-    <t>Fulfills plan, proposal or order</t>
-  </si>
-  <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
-    <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>Observation.status</t>
-  </si>
-  <si>
-    <t>registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
-  </si>
-  <si>
-    <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-status</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>&lt; 445584004 |Report by finality status|</t>
-  </si>
-  <si>
-    <t>OBX-11</t>
-  </si>
-  <si>
-    <t>status  Amended &amp; Final are differentiated by whether it is the subject of a ControlAct event with a type of "revise"</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Observation.category</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Classification of  type of observation</t>
-  </si>
-  <si>
-    <t>A code that classifies the general type of observation being made.</t>
-  </si>
-  <si>
-    <t>In addition to the required category valueset, this element allows various categorization schemes based on the owner’s definition of the category and effectively multiple categories can be used at once.  The level of granularity is defined by the category concepts in the value set.</t>
-  </si>
-  <si>
-    <t>Used for filtering what observations are retrieved and displayed.</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>Codes for high level observation categories.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
-  </si>
-  <si>
-    <t>class</t>
-  </si>
-  <si>
-    <t>Observation.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
-  </si>
-  <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>&lt; 363787002 |Observable entity| OR &lt; 386053000 |Evaluation procedure|</t>
-  </si>
-  <si>
-    <t>OBX-3</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>what</t>
-  </si>
-  <si>
-    <t>116680003 |Is a|</t>
-  </si>
-  <si>
-    <t>Observation.code.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Observation.code.extension</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Element.extension</t>
@@ -1519,6 +1516,33 @@
     <t>Observation.component.code.coding</t>
   </si>
   <si>
+    <t>Observation.component.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.system</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.code</t>
+  </si>
+  <si>
+    <t>2.3216-.03</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.display</t>
+  </si>
+  <si>
+    <t>Service Branch</t>
+  </si>
+  <si>
+    <t>Observation.component.code.coding.userSelected</t>
+  </si>
+  <si>
     <t>Observation.component.code.text</t>
   </si>
   <si>
@@ -1557,6 +1581,9 @@
   </si>
   <si>
     <t>Observation.component.value[x].coding.system</t>
+  </si>
+  <si>
+    <t>http://va.gov/terminology/vistaDefinedTerms/2.3216-.03</t>
   </si>
   <si>
     <t>Observation.component.value[x].coding.version</t>
@@ -1762,7 +1789,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP86"/>
+  <dimension ref="A1:AP93"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2787,7 +2814,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2806,15 +2833,17 @@
         <v>46</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>46</v>
@@ -2851,14 +2880,16 @@
         <v>46</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>46</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>46</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>107</v>
@@ -2888,7 +2919,7 @@
         <v>46</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s" s="2">
         <v>46</v>
@@ -2903,7 +2934,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -2922,16 +2953,16 @@
         <v>46</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -2981,7 +3012,7 @@
         <v>46</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>44</v>
@@ -3019,7 +3050,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -3042,17 +3073,17 @@
         <v>58</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>46</v>
@@ -3101,7 +3132,7 @@
         <v>46</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>44</v>
@@ -3119,19 +3150,19 @@
         <v>46</v>
       </c>
       <c r="AK11" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AN11" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL11" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>121</v>
-      </c>
       <c r="AO11" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP11" t="s" s="2">
         <v>46</v>
@@ -3139,11 +3170,11 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3162,17 +3193,17 @@
         <v>58</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" t="s" s="2">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O12" t="s" s="2">
         <v>46</v>
@@ -3221,7 +3252,7 @@
         <v>46</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>44</v>
@@ -3239,16 +3270,16 @@
         <v>46</v>
       </c>
       <c r="AK12" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AN12" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="AO12" t="s" s="2">
         <v>46</v>
@@ -3259,7 +3290,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -3285,16 +3316,16 @@
         <v>76</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L13" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="O13" t="s" s="2">
         <v>46</v>
@@ -3319,61 +3350,61 @@
         <v>46</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="X13" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="Z13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AN13" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="AM13" t="s" s="2">
+      <c r="AO13" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AN13" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="AO13" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="AP13" t="s" s="2">
         <v>46</v>
@@ -3381,7 +3412,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3404,19 +3435,19 @@
         <v>46</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>149</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>46</v>
@@ -3441,14 +3472,14 @@
         <v>46</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>152</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>46</v>
       </c>
@@ -3465,7 +3496,7 @@
         <v>46</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>44</v>
@@ -3492,10 +3523,10 @@
         <v>46</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>46</v>
@@ -3503,11 +3534,11 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3526,17 +3557,17 @@
         <v>58</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>46</v>
@@ -3561,69 +3592,69 @@
         <v>46</v>
       </c>
       <c r="W15" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y15" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Z15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AG15" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ15" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="Y15" t="s" s="2">
+      <c r="AL15" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Z15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK15" t="s" s="2">
+      <c r="AM15" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="AL15" t="s" s="2">
+      <c r="AN15" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AM15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AP15" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>167</v>
-      </c>
-      <c r="AP15" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3646,13 +3677,13 @@
         <v>46</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -3703,7 +3734,7 @@
         <v>46</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>44</v>
@@ -3730,7 +3761,7 @@
         <v>46</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>46</v>
@@ -3741,11 +3772,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3764,16 +3795,16 @@
         <v>46</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3811,19 +3842,19 @@
         <v>46</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB17" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE17" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3850,7 +3881,7 @@
         <v>46</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO17" t="s" s="2">
         <v>46</v>
@@ -3861,7 +3892,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3884,19 +3915,19 @@
         <v>58</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>46</v>
@@ -3945,7 +3976,7 @@
         <v>46</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3969,10 +4000,10 @@
         <v>46</v>
       </c>
       <c r="AM18" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>46</v>
@@ -3983,7 +4014,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4006,13 +4037,13 @@
         <v>46</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4063,7 +4094,7 @@
         <v>46</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -4090,7 +4121,7 @@
         <v>46</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>46</v>
@@ -4101,11 +4132,11 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
@@ -4124,16 +4155,16 @@
         <v>46</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -4171,19 +4202,19 @@
         <v>46</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE20" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4210,7 +4241,7 @@
         <v>46</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>46</v>
@@ -4221,7 +4252,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4247,92 +4278,92 @@
         <v>70</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>194</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>195</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="R21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE21" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="R21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE21" t="s" s="2">
+      <c r="AF21" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AF21" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
         <v>198</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>199</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>46</v>
@@ -4343,7 +4374,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4366,16 +4397,16 @@
         <v>58</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4425,34 +4456,34 @@
         <v>46</v>
       </c>
       <c r="AE22" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL22" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AF22" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL22" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>46</v>
@@ -4463,7 +4494,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4489,90 +4520,90 @@
         <v>76</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="R23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE23" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="R23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE23" t="s" s="2">
+      <c r="AF23" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL23" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>46</v>
@@ -4583,7 +4614,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4606,17 +4637,17 @@
         <v>58</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>46</v>
@@ -4665,34 +4696,34 @@
         <v>46</v>
       </c>
       <c r="AE24" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF24" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL24" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM24" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AF24" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL24" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>46</v>
@@ -4703,7 +4734,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4726,19 +4757,19 @@
         <v>58</v>
       </c>
       <c r="J25" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K25" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="K25" t="s" s="2">
+      <c r="L25" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>226</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>46</v>
@@ -4787,34 +4818,34 @@
         <v>46</v>
       </c>
       <c r="AE25" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF25" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AF25" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>46</v>
@@ -4825,7 +4856,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4848,19 +4879,19 @@
         <v>58</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>46</v>
@@ -4909,34 +4940,34 @@
         <v>46</v>
       </c>
       <c r="AE26" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM26" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="AF26" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>46</v>
@@ -4947,7 +4978,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4970,19 +5001,19 @@
         <v>58</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>242</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>46</v>
@@ -5031,7 +5062,7 @@
         <v>46</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>44</v>
@@ -5049,19 +5080,19 @@
         <v>46</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AL27" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>46</v>
@@ -5069,11 +5100,11 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -5092,19 +5123,19 @@
         <v>46</v>
       </c>
       <c r="J28" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>251</v>
       </c>
-      <c r="K28" t="s" s="2">
+      <c r="L28" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>254</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>46</v>
@@ -5153,7 +5184,7 @@
         <v>46</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -5171,19 +5202,19 @@
         <v>46</v>
       </c>
       <c r="AK28" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>256</v>
       </c>
-      <c r="AL28" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>259</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>46</v>
@@ -5191,11 +5222,11 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -5214,19 +5245,19 @@
         <v>58</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>46</v>
@@ -5263,47 +5294,47 @@
         <v>46</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD29" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK29" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AE29" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK29" t="s" s="2">
+      <c r="AL29" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL29" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>46</v>
@@ -5311,13 +5342,13 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="C30" t="s" s="2">
         <v>260</v>
-      </c>
-      <c r="B30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="C30" t="s" s="2">
-        <v>261</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5336,19 +5367,19 @@
         <v>58</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>46</v>
@@ -5397,7 +5428,7 @@
         <v>46</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>44</v>
@@ -5415,19 +5446,19 @@
         <v>46</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="AL30" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM30" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AL30" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AO30" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AP30" t="s" s="2">
         <v>46</v>
@@ -5435,7 +5466,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5458,13 +5489,13 @@
         <v>46</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5515,7 +5546,7 @@
         <v>46</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5542,7 +5573,7 @@
         <v>46</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>46</v>
@@ -5553,11 +5584,11 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5576,16 +5607,16 @@
         <v>46</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5623,19 +5654,19 @@
         <v>46</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB32" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE32" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5662,7 +5693,7 @@
         <v>46</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>46</v>
@@ -5673,14 +5704,14 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>46</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s" s="2">
         <v>44</v>
@@ -5698,16 +5729,16 @@
         <v>58</v>
       </c>
       <c r="J33" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="K33" t="s" s="2">
+      <c r="L33" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>280</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>281</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5757,34 +5788,34 @@
         <v>46</v>
       </c>
       <c r="AE33" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH33" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AF33" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH33" t="s" s="2">
+      <c r="AI33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="AI33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
+      <c r="AK33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>284</v>
       </c>
-      <c r="AK33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>46</v>
@@ -5795,7 +5826,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5818,95 +5849,95 @@
         <v>58</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>289</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>290</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P34" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Q34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE34" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="Q34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE34" t="s" s="2">
+      <c r="AF34" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>292</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>46</v>
@@ -5917,7 +5948,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5940,16 +5971,16 @@
         <v>58</v>
       </c>
       <c r="J35" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="K35" t="s" s="2">
         <v>296</v>
       </c>
-      <c r="K35" t="s" s="2">
+      <c r="L35" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5999,7 +6030,7 @@
         <v>46</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>44</v>
@@ -6023,13 +6054,13 @@
         <v>46</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>46</v>
@@ -6037,7 +6068,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6060,17 +6091,17 @@
         <v>58</v>
       </c>
       <c r="J36" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K36" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="K36" t="s" s="2">
+      <c r="L36" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>46</v>
@@ -6119,7 +6150,7 @@
         <v>46</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>44</v>
@@ -6137,19 +6168,19 @@
         <v>46</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>46</v>
@@ -6157,7 +6188,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6180,19 +6211,19 @@
         <v>58</v>
       </c>
       <c r="J37" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K37" t="s" s="2">
+      <c r="L37" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>317</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>46</v>
@@ -6241,7 +6272,7 @@
         <v>46</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6250,36 +6281,36 @@
         <v>57</v>
       </c>
       <c r="AH37" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AI37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>321</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>322</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>323</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6302,19 +6333,19 @@
         <v>46</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="L38" t="s" s="2">
+      <c r="M38" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>328</v>
       </c>
       <c r="O38" t="s" s="2">
         <v>46</v>
@@ -6342,38 +6373,38 @@
         <v>80</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>329</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH38" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD38" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF38" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="AI38" t="s" s="2">
         <v>46</v>
       </c>
@@ -6381,7 +6412,7 @@
         <v>46</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>46</v>
@@ -6390,7 +6421,7 @@
         <v>100</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>46</v>
@@ -6401,11 +6432,11 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6424,17 +6455,17 @@
         <v>46</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>46</v>
@@ -6462,66 +6493,66 @@
         <v>80</v>
       </c>
       <c r="X39" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y39" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="Y39" t="s" s="2">
+      <c r="Z39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AF39" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>342</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>343</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6544,17 +6575,17 @@
         <v>46</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>46</v>
@@ -6603,7 +6634,7 @@
         <v>46</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>44</v>
@@ -6621,16 +6652,16 @@
         <v>46</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AL40" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM40" t="s" s="2">
+      <c r="AN40" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>46</v>
@@ -6641,7 +6672,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6664,16 +6695,16 @@
         <v>46</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>353</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6699,69 +6730,69 @@
         <v>46</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X41" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="Y41" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="Y41" t="s" s="2">
+      <c r="Z41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>357</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>360</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6784,19 +6815,19 @@
         <v>46</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>362</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>46</v>
@@ -6821,58 +6852,58 @@
         <v>46</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X42" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="Y42" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM42" t="s" s="2">
+      <c r="AN42" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>46</v>
@@ -6883,7 +6914,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6906,16 +6937,16 @@
         <v>46</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>373</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>374</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6965,7 +6996,7 @@
         <v>46</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>44</v>
@@ -6986,24 +7017,24 @@
         <v>46</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7026,16 +7057,16 @@
         <v>46</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="K44" t="s" s="2">
+      <c r="L44" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7085,7 +7116,7 @@
         <v>46</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>44</v>
@@ -7106,24 +7137,24 @@
         <v>46</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7146,19 +7177,19 @@
         <v>46</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="K45" t="s" s="2">
+      <c r="L45" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>392</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>393</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>46</v>
@@ -7207,7 +7238,7 @@
         <v>46</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>44</v>
@@ -7219,22 +7250,22 @@
         <v>46</v>
       </c>
       <c r="AI45" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="AJ45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>395</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>46</v>
@@ -7245,7 +7276,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7268,13 +7299,13 @@
         <v>46</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7325,7 +7356,7 @@
         <v>46</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>44</v>
@@ -7352,7 +7383,7 @@
         <v>46</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>46</v>
@@ -7363,11 +7394,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -7386,16 +7417,16 @@
         <v>46</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7445,7 +7476,7 @@
         <v>46</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>44</v>
@@ -7472,7 +7503,7 @@
         <v>46</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>46</v>
@@ -7483,11 +7514,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7506,16 +7537,16 @@
         <v>58</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -7565,7 +7596,7 @@
         <v>46</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>44</v>
@@ -7603,7 +7634,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7626,13 +7657,13 @@
         <v>46</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="L49" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7683,7 +7714,7 @@
         <v>46</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>44</v>
@@ -7692,25 +7723,25 @@
         <v>57</v>
       </c>
       <c r="AH49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AI49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>46</v>
@@ -7721,7 +7752,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7744,13 +7775,13 @@
         <v>46</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7801,7 +7832,7 @@
         <v>46</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>44</v>
@@ -7810,25 +7841,25 @@
         <v>57</v>
       </c>
       <c r="AH50" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="AI50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>46</v>
@@ -7839,7 +7870,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7862,19 +7893,19 @@
         <v>46</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>46</v>
@@ -7902,55 +7933,55 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Y51" t="s" s="2">
         <v>419</v>
       </c>
-      <c r="Y51" t="s" s="2">
+      <c r="Z51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>57</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL51" t="s" s="2">
+      <c r="AM51" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>46</v>
@@ -7961,7 +7992,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7984,19 +8015,19 @@
         <v>46</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="O52" t="s" s="2">
         <v>46</v>
@@ -8021,14 +8052,14 @@
         <v>46</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="X52" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Y52" t="s" s="2">
         <v>428</v>
       </c>
-      <c r="Y52" t="s" s="2">
-        <v>429</v>
-      </c>
       <c r="Z52" t="s" s="2">
         <v>46</v>
       </c>
@@ -8045,7 +8076,7 @@
         <v>46</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>44</v>
@@ -8066,13 +8097,13 @@
         <v>46</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>422</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>46</v>
@@ -8083,7 +8114,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -8106,17 +8137,17 @@
         <v>46</v>
       </c>
       <c r="J53" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="K53" t="s" s="2">
         <v>431</v>
       </c>
-      <c r="K53" t="s" s="2">
+      <c r="L53" t="s" s="2">
         <v>432</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>433</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>46</v>
@@ -8165,7 +8196,7 @@
         <v>46</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -8192,7 +8223,7 @@
         <v>46</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>46</v>
@@ -8203,7 +8234,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8226,13 +8257,13 @@
         <v>46</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>437</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>438</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8283,7 +8314,7 @@
         <v>46</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8307,10 +8338,10 @@
         <v>46</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>46</v>
@@ -8321,7 +8352,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8344,19 +8375,19 @@
         <v>58</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>441</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>46</v>
@@ -8405,7 +8436,7 @@
         <v>46</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8417,22 +8448,22 @@
         <v>46</v>
       </c>
       <c r="AI55" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM55" t="s" s="2">
+      <c r="AN55" t="s" s="2">
         <v>446</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>447</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>46</v>
@@ -8443,7 +8474,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8466,13 +8497,13 @@
         <v>46</v>
       </c>
       <c r="J56" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8523,7 +8554,7 @@
         <v>46</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>44</v>
@@ -8550,7 +8581,7 @@
         <v>46</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>46</v>
@@ -8561,11 +8592,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -8584,16 +8615,16 @@
         <v>46</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8643,7 +8674,7 @@
         <v>46</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8670,7 +8701,7 @@
         <v>46</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>46</v>
@@ -8681,11 +8712,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -8704,16 +8735,16 @@
         <v>58</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8763,7 +8794,7 @@
         <v>46</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8801,7 +8832,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8827,16 +8858,16 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="L59" t="s" s="2">
+      <c r="M59" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="M59" t="s" s="2">
+      <c r="N59" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="O59" t="s" s="2">
         <v>46</v>
@@ -8861,14 +8892,14 @@
         <v>46</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>457</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>46</v>
       </c>
@@ -8885,7 +8916,7 @@
         <v>46</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>44</v>
@@ -8912,7 +8943,7 @@
         <v>100</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>46</v>
@@ -8923,7 +8954,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8946,13 +8977,13 @@
         <v>46</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="K60" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="L60" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9003,7 +9034,7 @@
         <v>46</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>57</v>
@@ -9030,7 +9061,7 @@
         <v>46</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>46</v>
@@ -9041,7 +9072,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9064,19 +9095,19 @@
         <v>58</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>465</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>468</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>46</v>
@@ -9125,7 +9156,7 @@
         <v>46</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>44</v>
@@ -9137,7 +9168,7 @@
         <v>46</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>46</v>
@@ -9149,10 +9180,10 @@
         <v>46</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>46</v>
@@ -9163,7 +9194,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9186,13 +9217,13 @@
         <v>46</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9243,7 +9274,7 @@
         <v>46</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>44</v>
@@ -9270,7 +9301,7 @@
         <v>46</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>46</v>
@@ -9281,11 +9312,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9304,16 +9335,16 @@
         <v>46</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9363,7 +9394,7 @@
         <v>46</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>44</v>
@@ -9390,7 +9421,7 @@
         <v>46</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>46</v>
@@ -9401,11 +9432,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -9424,16 +9455,16 @@
         <v>58</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9483,7 +9514,7 @@
         <v>46</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>44</v>
@@ -9521,7 +9552,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9544,17 +9575,17 @@
         <v>58</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>475</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>46</v>
@@ -9579,14 +9610,14 @@
         <v>46</v>
       </c>
       <c r="W65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="X65" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>162</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>46</v>
       </c>
@@ -9603,7 +9634,7 @@
         <v>46</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>57</v>
@@ -9624,16 +9655,16 @@
         <v>46</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AO65" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="AP65" t="s" s="2">
         <v>46</v>
@@ -9641,7 +9672,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9664,13 +9695,13 @@
         <v>46</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>172</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9721,7 +9752,7 @@
         <v>46</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>44</v>
@@ -9748,7 +9779,7 @@
         <v>46</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>46</v>
@@ -9759,11 +9790,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9782,16 +9813,16 @@
         <v>46</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
@@ -9829,19 +9860,19 @@
         <v>46</v>
       </c>
       <c r="AA67" t="s" s="2">
-        <v>105</v>
+        <v>175</v>
       </c>
       <c r="AB67" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AE67" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="AC67" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AD67" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="AE67" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>44</v>
@@ -9868,7 +9899,7 @@
         <v>46</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>46</v>
@@ -9879,7 +9910,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9902,19 +9933,19 @@
         <v>58</v>
       </c>
       <c r="J68" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K68" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="K68" t="s" s="2">
+      <c r="L68" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="L68" t="s" s="2">
+      <c r="M68" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="M68" t="s" s="2">
+      <c r="N68" t="s" s="2">
         <v>184</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>185</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>46</v>
@@ -9963,7 +9994,7 @@
         <v>46</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>44</v>
@@ -9987,10 +10018,10 @@
         <v>46</v>
       </c>
       <c r="AM68" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AN68" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="AN68" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>46</v>
@@ -10001,7 +10032,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10021,23 +10052,19 @@
         <v>46</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K69" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L69" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M69" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>46</v>
       </c>
@@ -10085,7 +10112,7 @@
         <v>46</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -10109,10 +10136,10 @@
         <v>46</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>46</v>
@@ -10123,18 +10150,18 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>46</v>
@@ -10143,23 +10170,21 @@
         <v>46</v>
       </c>
       <c r="I70" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>483</v>
+        <v>103</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>484</v>
+        <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>315</v>
+        <v>174</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>46</v>
       </c>
@@ -10195,23 +10220,25 @@
         <v>46</v>
       </c>
       <c r="AA70" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AB70" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="AC70" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD70" t="s" s="2">
-        <v>268</v>
+        <v>177</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>482</v>
+        <v>178</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>46</v>
@@ -10226,28 +10253,26 @@
         <v>46</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="B71" t="s" s="2">
-        <v>487</v>
-      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>46</v>
       </c>
@@ -10259,7 +10284,7 @@
         <v>57</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>46</v>
@@ -10268,26 +10293,26 @@
         <v>58</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>484</v>
+        <v>191</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>315</v>
+        <v>192</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>485</v>
+        <v>193</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>317</v>
+        <v>194</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P71" s="2"/>
       <c r="Q71" t="s" s="2">
-        <v>46</v>
+        <v>195</v>
       </c>
       <c r="R71" t="s" s="2">
         <v>46</v>
@@ -10329,7 +10354,7 @@
         <v>46</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>482</v>
+        <v>196</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
@@ -10350,24 +10375,24 @@
         <v>46</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>322</v>
+        <v>198</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10387,18 +10412,20 @@
         <v>46</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>46</v>
@@ -10447,7 +10474,7 @@
         <v>46</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>44</v>
@@ -10471,10 +10498,10 @@
         <v>46</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>46</v>
@@ -10483,49 +10510,49 @@
         <v>46</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="O73" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>46</v>
+        <v>485</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>46</v>
@@ -10555,25 +10582,25 @@
         <v>46</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>46</v>
@@ -10591,10 +10618,10 @@
         <v>46</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>46</v>
@@ -10603,9 +10630,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10616,10 +10643,10 @@
         <v>44</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>46</v>
@@ -10628,26 +10655,24 @@
         <v>58</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>184</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" t="s" s="2">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
-        <v>46</v>
+        <v>487</v>
       </c>
       <c r="R74" t="s" s="2">
         <v>46</v>
@@ -10689,13 +10714,13 @@
         <v>46</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>46</v>
@@ -10713,10 +10738,10 @@
         <v>46</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>46</v>
@@ -10727,7 +10752,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10747,19 +10772,23 @@
         <v>46</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="O75" t="s" s="2">
         <v>46</v>
       </c>
@@ -10807,7 +10836,7 @@
         <v>46</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>173</v>
+        <v>227</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>44</v>
@@ -10831,10 +10860,10 @@
         <v>46</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>46</v>
+        <v>228</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>174</v>
+        <v>229</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>46</v>
@@ -10845,18 +10874,18 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
-        <v>109</v>
+        <v>46</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>46</v>
@@ -10865,21 +10894,23 @@
         <v>46</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>176</v>
+        <v>231</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>177</v>
+        <v>232</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>46</v>
       </c>
@@ -10915,25 +10946,25 @@
         <v>46</v>
       </c>
       <c r="AA76" t="s" s="2">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="AB76" t="s" s="2">
-        <v>178</v>
+        <v>46</v>
       </c>
       <c r="AC76" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD76" t="s" s="2">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>179</v>
+        <v>235</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>46</v>
@@ -10951,10 +10982,10 @@
         <v>46</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>174</v>
+        <v>237</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>46</v>
@@ -10965,7 +10996,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10988,19 +11019,19 @@
         <v>58</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>70</v>
+        <v>491</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>193</v>
+        <v>314</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>194</v>
+        <v>493</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>195</v>
+        <v>316</v>
       </c>
       <c r="O77" t="s" s="2">
         <v>46</v>
@@ -11037,19 +11068,17 @@
         <v>46</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>46</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AB77" s="2"/>
       <c r="AC77" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>46</v>
+        <v>267</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>197</v>
+        <v>490</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>44</v>
@@ -11070,26 +11099,28 @@
         <v>46</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>46</v>
+        <v>494</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>198</v>
+        <v>320</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>199</v>
+        <v>321</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>46</v>
+        <v>322</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>490</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>495</v>
+      </c>
       <c r="C78" t="s" s="2">
         <v>46</v>
       </c>
@@ -11110,18 +11141,20 @@
         <v>58</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>201</v>
+        <v>492</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>202</v>
+        <v>314</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="N78" s="2"/>
+        <v>493</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O78" t="s" s="2">
         <v>46</v>
       </c>
@@ -11169,7 +11202,7 @@
         <v>46</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>204</v>
+        <v>490</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>44</v>
@@ -11190,32 +11223,30 @@
         <v>46</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>46</v>
+        <v>494</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>205</v>
+        <v>320</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>206</v>
+        <v>321</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>46</v>
+        <v>322</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="D79" t="s" s="2">
-        <v>496</v>
-      </c>
+      <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
         <v>44</v>
       </c>
@@ -11223,27 +11254,25 @@
         <v>57</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>76</v>
+        <v>168</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>497</v>
+        <v>170</v>
       </c>
       <c r="M79" s="2"/>
-      <c r="N79" t="s" s="2">
-        <v>210</v>
-      </c>
+      <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>46</v>
       </c>
@@ -11291,7 +11320,7 @@
         <v>46</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>44</v>
@@ -11306,7 +11335,7 @@
         <v>46</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>498</v>
+        <v>46</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>46</v>
@@ -11315,10 +11344,10 @@
         <v>46</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>213</v>
+        <v>46</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>46</v>
@@ -11329,18 +11358,18 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>46</v>
@@ -11349,21 +11378,21 @@
         <v>46</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>46</v>
       </c>
@@ -11399,25 +11428,25 @@
         <v>46</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>46</v>
@@ -11435,10 +11464,10 @@
         <v>46</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>220</v>
+        <v>46</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>221</v>
+        <v>172</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>46</v>
@@ -11449,7 +11478,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11460,7 +11489,7 @@
         <v>44</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>46</v>
@@ -11472,19 +11501,19 @@
         <v>58</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>223</v>
+        <v>180</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>225</v>
+        <v>182</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>226</v>
+        <v>183</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>227</v>
+        <v>184</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>46</v>
@@ -11533,13 +11562,13 @@
         <v>46</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>46</v>
@@ -11557,10 +11586,10 @@
         <v>46</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>229</v>
+        <v>186</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>230</v>
+        <v>187</v>
       </c>
       <c r="AO81" t="s" s="2">
         <v>46</v>
@@ -11571,7 +11600,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11591,23 +11620,19 @@
         <v>46</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J82" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>235</v>
-      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>46</v>
       </c>
@@ -11655,7 +11680,7 @@
         <v>46</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>236</v>
+        <v>171</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>44</v>
@@ -11679,10 +11704,10 @@
         <v>46</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>238</v>
+        <v>172</v>
       </c>
       <c r="AO82" t="s" s="2">
         <v>46</v>
@@ -11691,49 +11716,43 @@
         <v>46</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>482</v>
-      </c>
-      <c r="B83" t="s" s="2">
-        <v>502</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="D83" t="s" s="2">
-        <v>503</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>170</v>
+        <v>103</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>279</v>
+        <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>504</v>
+        <v>174</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>317</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>46</v>
       </c>
@@ -11769,25 +11788,25 @@
         <v>46</v>
       </c>
       <c r="AA83" t="s" s="2">
-        <v>46</v>
+        <v>175</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="AC83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AD83" t="s" s="2">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>482</v>
+        <v>178</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>46</v>
@@ -11796,30 +11815,30 @@
         <v>46</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>505</v>
+        <v>46</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>486</v>
+        <v>46</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>321</v>
+        <v>46</v>
       </c>
       <c r="AN83" t="s" s="2">
-        <v>322</v>
+        <v>172</v>
       </c>
       <c r="AO83" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP83" t="s" s="2">
-        <v>323</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11833,35 +11852,35 @@
         <v>57</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>145</v>
+        <v>70</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>507</v>
+        <v>191</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>326</v>
+        <v>192</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>508</v>
+        <v>193</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>328</v>
+        <v>194</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>46</v>
       </c>
       <c r="P84" s="2"/>
       <c r="Q84" t="s" s="2">
-        <v>46</v>
+        <v>502</v>
       </c>
       <c r="R84" t="s" s="2">
         <v>46</v>
@@ -11879,13 +11898,13 @@
         <v>46</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>329</v>
+        <v>46</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>330</v>
+        <v>46</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>46</v>
@@ -11903,7 +11922,7 @@
         <v>46</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>506</v>
+        <v>196</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>44</v>
@@ -11912,7 +11931,7 @@
         <v>57</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>46</v>
@@ -11927,10 +11946,10 @@
         <v>46</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>100</v>
+        <v>197</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>332</v>
+        <v>198</v>
       </c>
       <c r="AO84" t="s" s="2">
         <v>46</v>
@@ -11941,11 +11960,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>334</v>
+        <v>46</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11961,23 +11980,21 @@
         <v>46</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>335</v>
+        <v>200</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>336</v>
+        <v>201</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>510</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>337</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>46</v>
       </c>
@@ -12001,13 +12018,13 @@
         <v>46</v>
       </c>
       <c r="W85" t="s" s="2">
-        <v>80</v>
+        <v>46</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>338</v>
+        <v>46</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>339</v>
+        <v>46</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>46</v>
@@ -12025,7 +12042,7 @@
         <v>46</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>509</v>
+        <v>203</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>44</v>
@@ -12046,59 +12063,59 @@
         <v>46</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>340</v>
+        <v>46</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>341</v>
+        <v>204</v>
       </c>
       <c r="AN85" t="s" s="2">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="AO85" t="s" s="2">
         <v>46</v>
       </c>
       <c r="AP85" t="s" s="2">
-        <v>343</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="D86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>505</v>
+      </c>
       <c r="E86" t="s" s="2">
         <v>44</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="G86" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H86" t="s" s="2">
         <v>46</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>512</v>
+        <v>278</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>392</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="M86" s="2"/>
       <c r="N86" t="s" s="2">
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>46</v>
@@ -12147,44 +12164,900 @@
         <v>46</v>
       </c>
       <c r="AE86" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="B88" s="2"/>
+      <c r="C88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B89" s="2"/>
+      <c r="C89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="B90" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="AF86" t="s" s="2">
-        <v>44</v>
-      </c>
-      <c r="AG86" t="s" s="2">
+      <c r="C90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P90" s="2"/>
+      <c r="Q90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="B91" s="2"/>
+      <c r="C91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P91" s="2"/>
+      <c r="Q91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B92" s="2"/>
+      <c r="C92" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P92" s="2"/>
+      <c r="Q92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP92" t="s" s="2">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="B93" s="2"/>
+      <c r="C93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AH86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AM86" t="s" s="2">
+      <c r="G93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="P93" s="2"/>
+      <c r="Q93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="R93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="AN93" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="AN86" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AO86" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AP86" t="s" s="2">
+      <c r="AO93" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AP93" t="s" s="2">
         <v>46</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP86">
+  <autoFilter ref="A1:AP93">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12194,7 +13067,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI85">
+  <conditionalFormatting sqref="A2:AI92">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
